--- a/data/casedata.xlsx
+++ b/data/casedata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>username</t>
   </si>
@@ -43,13 +43,175 @@
   <si>
     <t>必填项有空，添加失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin_date_hh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_card_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin_date_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin_date_ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美羊羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒羊羊</t>
+  </si>
+  <si>
+    <t>喜羊羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大肥羊学校</t>
+  </si>
+  <si>
+    <t>A803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大肥羊学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小肥羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中肥羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小羊队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大肥羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大羊队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中羊队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊村</t>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沸羊羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖羊羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢羊羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码簿重复，添加失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软绵绵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play_endDate</t>
+  </si>
+  <si>
+    <t>end_date_hh</t>
+  </si>
+  <si>
+    <t>end_date_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date_ss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +226,27 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,8 +271,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -386,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -397,10 +589,16 @@
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="19.625" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,116 +612,429 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>111</v>
-      </c>
-      <c r="B2">
-        <v>222</v>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
       </c>
       <c r="C2">
+        <v>803</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>8030</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>2222</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
         <v>1111</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>18</v>
+      </c>
+      <c r="Q2">
+        <v>18</v>
+      </c>
+      <c r="R2">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>806</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
         <v>2222</v>
       </c>
-      <c r="E2">
+      <c r="L3">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>1111</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>18</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>807</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
         <v>2222</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1111</v>
+      </c>
+      <c r="P4">
+        <v>18</v>
+      </c>
+      <c r="Q4">
+        <v>18</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>809</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
         <v>2222</v>
       </c>
-      <c r="B3">
-        <v>333</v>
-      </c>
-      <c r="C3">
-        <v>444</v>
-      </c>
-      <c r="D3">
-        <v>6666</v>
-      </c>
-      <c r="E3">
+      <c r="O5">
+        <v>1111</v>
+      </c>
+      <c r="P5">
+        <v>18</v>
+      </c>
+      <c r="Q5">
+        <v>18</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>810</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6">
         <v>2222</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L6">
+        <v>12</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>1111</v>
+      </c>
+      <c r="P6">
+        <v>18</v>
+      </c>
+      <c r="Q6">
+        <v>18</v>
+      </c>
+      <c r="R6">
+        <v>18</v>
+      </c>
+      <c r="S6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>555</v>
-      </c>
-      <c r="B4">
-        <v>888</v>
-      </c>
-      <c r="C4">
-        <v>5558</v>
-      </c>
-      <c r="D4">
-        <v>78777</v>
-      </c>
-      <c r="E4">
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>813</v>
+      </c>
+      <c r="K7">
         <v>2222</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>1111</v>
+      </c>
+      <c r="P7">
+        <v>18</v>
+      </c>
+      <c r="Q7">
+        <v>18</v>
+      </c>
+      <c r="R7">
+        <v>18</v>
+      </c>
+      <c r="S7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>558</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>813</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>4442</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="10" spans="1:19">
+      <c r="S10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="C7">
+    <row r="11" spans="1:19">
+      <c r="B11">
         <v>1234</v>
       </c>
-      <c r="F7" t="s">
+      <c r="S11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="D8">
-        <v>556</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="12" spans="1:19">
+      <c r="C12">
+        <v>1234</v>
+      </c>
+      <c r="S12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="E9">
+    <row r="13" spans="1:19">
+      <c r="D13">
+        <v>56</v>
+      </c>
+      <c r="S13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="S14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="K15">
         <v>2222</v>
       </c>
-      <c r="F9" t="s">
+      <c r="S15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="O16">
+        <v>1111</v>
+      </c>
+      <c r="P16">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <v>18</v>
+      </c>
+      <c r="R16">
+        <v>18</v>
+      </c>
+      <c r="S16" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://baike.baidu.com/item/%E5%96%9C%E7%BE%8A%E7%BE%8A"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://baike.baidu.com/item/%E6%87%92%E7%BE%8A%E7%BE%8A"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://baike.baidu.com/item/%E6%B2%B8%E7%BE%8A%E7%BE%8A"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://baike.baidu.com/item/%E6%9A%96%E7%BE%8A%E7%BE%8A"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://baike.baidu.com/item/%E6%85%A2%E7%BE%8A%E7%BE%8A"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://baike.baidu.com/item/%E9%A3%9E%E6%9C%BA%E4%BB%94"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/data/casedata.xlsx
+++ b/data/casedata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>username</t>
   </si>
@@ -205,6 +205,10 @@
   </si>
   <si>
     <t>end_date_ss</t>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -580,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1007,17 +1011,8 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="O16">
-        <v>1111</v>
-      </c>
-      <c r="P16">
-        <v>18</v>
-      </c>
-      <c r="Q16">
-        <v>18</v>
-      </c>
-      <c r="R16">
-        <v>18</v>
+      <c r="E16" t="s">
+        <v>50</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>

--- a/data/casedata.xlsx
+++ b/data/casedata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>username</t>
   </si>
@@ -155,9 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>羊村</t>
-  </si>
-  <si>
     <t>？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +205,10 @@
   </si>
   <si>
     <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +586,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -646,16 +647,16 @@
         <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="S1" t="s">
         <v>5</v>
@@ -683,29 +684,14 @@
       <c r="G2">
         <v>8030</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="K2">
-        <v>2222</v>
-      </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-      <c r="O2">
-        <v>1111</v>
       </c>
       <c r="P2">
         <v>18</v>
@@ -739,18 +725,15 @@
       <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3">
-        <v>2222</v>
-      </c>
       <c r="L3">
         <v>13</v>
       </c>
@@ -760,9 +743,6 @@
       <c r="N3">
         <v>13</v>
       </c>
-      <c r="O3">
-        <v>1111</v>
-      </c>
       <c r="P3">
         <v>18</v>
       </c>
@@ -795,17 +775,17 @@
       <c r="F4" t="s">
         <v>34</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4">
-        <v>2222</v>
-      </c>
       <c r="L4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -813,9 +793,6 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>1111</v>
-      </c>
       <c r="P4">
         <v>18</v>
       </c>
@@ -831,7 +808,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -848,14 +825,17 @@
       <c r="F5" t="s">
         <v>35</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K5">
-        <v>2222</v>
-      </c>
-      <c r="O5">
-        <v>1111</v>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
       </c>
       <c r="P5">
         <v>18</v>
@@ -872,10 +852,10 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>810</v>
@@ -883,21 +863,15 @@
       <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="K6">
-        <v>2222</v>
-      </c>
-      <c r="L6">
-        <v>12</v>
-      </c>
-      <c r="M6">
-        <v>12</v>
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="N6">
         <v>12</v>
       </c>
-      <c r="O6">
-        <v>1111</v>
-      </c>
       <c r="P6">
         <v>18</v>
       </c>
@@ -913,17 +887,14 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>813</v>
       </c>
-      <c r="K7">
-        <v>2222</v>
-      </c>
       <c r="L7">
         <v>12</v>
       </c>
@@ -933,9 +904,6 @@
       <c r="N7">
         <v>12</v>
       </c>
-      <c r="O7">
-        <v>1111</v>
-      </c>
       <c r="P7">
         <v>18</v>
       </c>
@@ -951,18 +919,18 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>813</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
@@ -1012,7 +980,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>
